--- a/data/save_data/2021/lópez_reynaldo.xlsx
+++ b/data/save_data/2021/lópez_reynaldo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,16 @@
           <t>IP</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>I0</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>IF</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -497,6 +507,12 @@
       <c r="H2" t="n">
         <v>3</v>
       </c>
+      <c r="I2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -524,6 +540,12 @@
       </c>
       <c r="H3" t="n">
         <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -553,6 +575,12 @@
       <c r="H4" t="n">
         <v>6</v>
       </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -581,6 +609,12 @@
       <c r="H5" t="n">
         <v>4</v>
       </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -607,6 +641,12 @@
         <v>25</v>
       </c>
       <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -637,6 +677,12 @@
       <c r="H7" t="n">
         <v>5</v>
       </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -665,6 +711,12 @@
       <c r="H8" t="n">
         <v>4</v>
       </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,6 +745,12 @@
       <c r="H9" t="n">
         <v>1</v>
       </c>
+      <c r="I9" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -721,6 +779,12 @@
       <c r="H10" t="n">
         <v>5</v>
       </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -749,6 +813,12 @@
       <c r="H11" t="n">
         <v>4</v>
       </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -777,6 +847,12 @@
       <c r="H12" t="n">
         <v>5</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -805,6 +881,12 @@
       <c r="H13" t="n">
         <v>3</v>
       </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -833,6 +915,12 @@
       <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="I14" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -861,6 +949,12 @@
       <c r="H15" t="n">
         <v>1</v>
       </c>
+      <c r="I15" t="n">
+        <v>7</v>
+      </c>
+      <c r="J15" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -889,6 +983,12 @@
       <c r="H16" t="n">
         <v>3</v>
       </c>
+      <c r="I16" t="n">
+        <v>4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -917,6 +1017,12 @@
       <c r="H17" t="n">
         <v>2</v>
       </c>
+      <c r="I17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -945,6 +1051,12 @@
       <c r="H18" t="n">
         <v>1</v>
       </c>
+      <c r="I18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -973,6 +1085,12 @@
       <c r="H19" t="n">
         <v>2</v>
       </c>
+      <c r="I19" t="n">
+        <v>7</v>
+      </c>
+      <c r="J19" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1001,6 +1119,12 @@
       <c r="H20" t="n">
         <v>1</v>
       </c>
+      <c r="I20" t="n">
+        <v>8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1029,6 +1153,12 @@
       <c r="H21" t="n">
         <v>3</v>
       </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1057,6 +1187,12 @@
       <c r="H22" t="n">
         <v>2</v>
       </c>
+      <c r="I22" t="n">
+        <v>8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1085,6 +1221,12 @@
       <c r="H23" t="n">
         <v>3</v>
       </c>
+      <c r="I23" t="n">
+        <v>5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1113,6 +1255,12 @@
       <c r="H24" t="n">
         <v>3</v>
       </c>
+      <c r="I24" t="n">
+        <v>4</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1141,6 +1289,12 @@
       <c r="H25" t="n">
         <v>3</v>
       </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1167,6 +1321,12 @@
         <v>3</v>
       </c>
       <c r="H26" t="n">
+        <v>2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
         <v>2</v>
       </c>
     </row>

--- a/data/save_data/2021/lópez_reynaldo.xlsx
+++ b/data/save_data/2021/lópez_reynaldo.xlsx
@@ -499,7 +499,7 @@
         <v>-5</v>
       </c>
       <c r="F2" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="G2" t="n">
         <v>9</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G3" t="n">
         <v>3</v>
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>18</v>
@@ -601,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
         <v>17</v>
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="G6" t="n">
         <v>25</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="G7" t="n">
         <v>26</v>
@@ -703,7 +703,7 @@
         <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G8" t="n">
         <v>14</v>
@@ -771,7 +771,7 @@
         <v>-5</v>
       </c>
       <c r="F10" t="n">
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="G10" t="n">
         <v>19</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G11" t="n">
         <v>19</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G12" t="n">
         <v>21</v>
@@ -907,7 +907,7 @@
         <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G14" t="n">
         <v>10</v>
@@ -941,7 +941,7 @@
         <v>-1</v>
       </c>
       <c r="F15" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G15" t="n">
         <v>5</v>
@@ -975,7 +975,7 @@
         <v>-1</v>
       </c>
       <c r="F16" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>16</v>
@@ -1009,7 +1009,7 @@
         <v>-4</v>
       </c>
       <c r="F17" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="G17" t="n">
         <v>9</v>
@@ -1077,7 +1077,7 @@
         <v>-4</v>
       </c>
       <c r="F19" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="G19" t="n">
         <v>15</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G21" t="n">
         <v>12</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="G23" t="n">
         <v>17</v>
@@ -1247,7 +1247,7 @@
         <v>3</v>
       </c>
       <c r="F24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>6</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="G25" t="n">
         <v>7</v>

--- a/data/save_data/2021/lópez_reynaldo.xlsx
+++ b/data/save_data/2021/lópez_reynaldo.xlsx
@@ -502,7 +502,7 @@
         <v>-6</v>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
@@ -536,7 +536,7 @@
         <v>-2</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -570,7 +570,7 @@
         <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
         <v>6</v>
@@ -604,7 +604,7 @@
         <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -638,7 +638,7 @@
         <v>-7</v>
       </c>
       <c r="G6" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -672,7 +672,7 @@
         <v>-2</v>
       </c>
       <c r="G7" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>5</v>
@@ -706,7 +706,7 @@
         <v>5</v>
       </c>
       <c r="G8" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -740,7 +740,7 @@
         <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -774,7 +774,7 @@
         <v>7</v>
       </c>
       <c r="G10" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H10" t="n">
         <v>5</v>
@@ -808,7 +808,7 @@
         <v>-3</v>
       </c>
       <c r="G11" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -842,7 +842,7 @@
         <v>8</v>
       </c>
       <c r="G12" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H12" t="n">
         <v>5</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
         <v>3</v>
@@ -910,7 +910,7 @@
         <v>6</v>
       </c>
       <c r="G14" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
         <v>2</v>
@@ -944,7 +944,7 @@
         <v>-2</v>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
@@ -1012,7 +1012,7 @@
         <v>-5</v>
       </c>
       <c r="G17" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>2</v>
@@ -1046,7 +1046,7 @@
         <v>-2</v>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -1080,7 +1080,7 @@
         <v>-5</v>
       </c>
       <c r="G19" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
         <v>2</v>
@@ -1114,7 +1114,7 @@
         <v>-6</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1148,7 +1148,7 @@
         <v>-1</v>
       </c>
       <c r="G21" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
@@ -1182,7 +1182,7 @@
         <v>-6</v>
       </c>
       <c r="G22" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>2</v>
@@ -1216,7 +1216,7 @@
         <v>-4</v>
       </c>
       <c r="G23" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>3</v>
@@ -1250,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
         <v>3</v>
@@ -1284,7 +1284,7 @@
         <v>-5</v>
       </c>
       <c r="G25" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
         <v>3</v>
@@ -1318,7 +1318,7 @@
         <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
         <v>2</v>

--- a/data/save_data/2021/lópez_reynaldo.xlsx
+++ b/data/save_data/2021/lópez_reynaldo.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>dS0</t>
+          <t>dSF</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dSF</t>
+          <t>d2S</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -496,10 +496,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F2" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
@@ -530,7 +530,7 @@
         <v>19</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F3" t="n">
         <v>-2</v>
@@ -564,7 +564,7 @@
         <v>81</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -598,10 +598,10 @@
         <v>65</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
         <v>4</v>
@@ -632,7 +632,7 @@
         <v>81</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="F6" t="n">
         <v>-7</v>
@@ -666,7 +666,7 @@
         <v>90</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F7" t="n">
         <v>-2</v>
@@ -700,10 +700,10 @@
         <v>66</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -737,7 +737,7 @@
         <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -768,10 +768,10 @@
         <v>59</v>
       </c>
       <c r="E10" t="n">
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G10" t="n">
         <v>7</v>
@@ -802,7 +802,7 @@
         <v>75</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="F11" t="n">
         <v>-3</v>
@@ -836,7 +836,7 @@
         <v>70</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
         <v>8</v>
@@ -904,10 +904,10 @@
         <v>33</v>
       </c>
       <c r="E14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F14" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>3</v>
@@ -938,10 +938,10 @@
         <v>31</v>
       </c>
       <c r="E15" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F15" t="n">
         <v>-1</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-2</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -972,10 +972,10 @@
         <v>40</v>
       </c>
       <c r="E16" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>4</v>
@@ -1006,10 +1006,10 @@
         <v>42</v>
       </c>
       <c r="E17" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F17" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -1043,7 +1043,7 @@
         <v>-2</v>
       </c>
       <c r="F18" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1074,10 +1074,10 @@
         <v>34</v>
       </c>
       <c r="E19" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="F19" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="G19" t="n">
         <v>4</v>
@@ -1111,7 +1111,7 @@
         <v>-6</v>
       </c>
       <c r="F20" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>44</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F21" t="n">
         <v>-1</v>
@@ -1179,7 +1179,7 @@
         <v>-6</v>
       </c>
       <c r="F22" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1210,7 +1210,7 @@
         <v>67</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="F23" t="n">
         <v>-4</v>
@@ -1244,10 +1244,10 @@
         <v>22</v>
       </c>
       <c r="E24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1278,7 +1278,7 @@
         <v>28</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F25" t="n">
         <v>-5</v>
@@ -1315,7 +1315,7 @@
         <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
